--- a/currentbuild/StructureDefinition-lmdi-legemiddeladministrering.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-legemiddeladministrering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24</t>
+    <t>2025-01-09</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,7 +635,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-patient)
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-institusjonsopphold)
 </t>
   </si>
   <si>
@@ -863,7 +863,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-diagnose)
 </t>
   </si>
   <si>
@@ -891,7 +891,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-legemiddelrekvirering)
 </t>
   </si>
   <si>
@@ -1743,7 +1743,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.21484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
